--- a/biology/Botanique/Commatiidae/Commatiidae.xlsx
+++ b/biology/Botanique/Commatiidae/Commatiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Commatiidae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Raphidophyceae et de l’ordre des Commatiida.
-Le  genre Commation semble omniprésent dans les eaux de l'océan Antarctique[1]. Deux espèces, Commation eposianum (précédemment appelée « amibe en forme de virgule ») et Commation cryoporinum, ont été décrites dans les eaux antarctiques[1].
+Le  genre Commation semble omniprésent dans les eaux de l'océan Antarctique. Deux espèces, Commation eposianum (précédemment appelée « amibe en forme de virgule ») et Commation cryoporinum, ont été décrites dans les eaux antarctiques.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Commation.
 </t>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Commation est un genre de protiste unicellulaire planctonique caractérisé par un corps cellulaire circulaire à ovale (parfois aplati) et une trompe. Les cellules se déplacent principalement par glissement.
 Les mitochondries sont tubulo-cristées[note 1] et les deux corps basaux flagellaires sont munis de racines microtubulaires ainsi que d'un rhizoplaste[note 2].
-Le flagelle émergeant unique, difficile à observer, semble porteur de poils tripartites[1].
+Le flagelle émergeant unique, difficile à observer, semble porteur de poils tripartites.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (15 mars 2022)[2] et World Register of Marine Species                               (15 mars 2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (15 mars 2022) et World Register of Marine Species                               (15 mars 2022) :
 Commation Thomsen &amp; Larsen, 1993
 Commation cryoporinum Thomsen &amp; Larsen, 1993</t>
         </is>
@@ -608,7 +626,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Commatiidae a été créée en 2013 par Thomas Cavalier-Smith (1942-2021).
 </t>
